--- a/scrum/Sprint Backlogs.xlsx
+++ b/scrum/Sprint Backlogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Nodejs\todo\development-proccess\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23F87E7-1B04-4A92-A258-6D9E1D2681D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E616313-11C7-43F5-A74B-33EA3E7366DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{C67EAF7E-16B0-4C7B-B19A-0F57AB1DB677}"/>
   </bookViews>
@@ -236,7 +236,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,6 +391,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -401,34 +419,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,14 +984,14 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="13" t="s">
         <v>27</v>
       </c>
@@ -994,10 +1000,10 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="2">
         <v>6</v>
       </c>
@@ -1006,22 +1012,22 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="2">
         <f>SUM(F7:F10000)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -1236,8 +1242,8 @@
   </sheetPr>
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1257,14 +1263,14 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="13" t="s">
         <v>29</v>
       </c>
@@ -1273,10 +1279,10 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="2">
         <v>6</v>
       </c>
@@ -1285,22 +1291,22 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="2">
         <f>SUM(F7:F10000)</f>
         <v>57</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -1341,7 +1347,7 @@
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1377,7 +1383,7 @@
         <f>B7+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1411,7 +1417,7 @@
         <f t="shared" ref="B9:B14" si="0">B8+1</f>
         <v>3</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1445,7 +1451,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1479,7 +1485,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1513,7 +1519,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1547,7 +1553,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1581,7 +1587,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1705,8 +1711,8 @@
   </sheetPr>
   <dimension ref="B2:Q17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1729,14 +1735,14 @@
       <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
@@ -1745,73 +1751,76 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="2">
         <f>SUM(F7:F10000)</f>
         <v>52</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="O5" s="22" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="O5" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
     </row>
     <row r="6" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="24">
+      <c r="F6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="17">
         <v>1</v>
       </c>
-      <c r="H6" s="24">
-        <v>2</v>
-      </c>
-      <c r="I6" s="24">
+      <c r="H6" s="17">
+        <v>2</v>
+      </c>
+      <c r="I6" s="17">
         <v>3</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="17">
         <v>4</v>
       </c>
-      <c r="K6" s="24">
-        <v>5</v>
-      </c>
-      <c r="L6" s="24">
+      <c r="K6" s="17">
+        <v>5</v>
+      </c>
+      <c r="L6" s="17">
         <v>6</v>
+      </c>
+      <c r="M6" s="30">
+        <v>7</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>17</v>
@@ -1828,31 +1837,34 @@
       <c r="C7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="27">
-        <v>2</v>
-      </c>
-      <c r="G7" s="27">
-        <v>0</v>
-      </c>
-      <c r="H7" s="27">
-        <v>0</v>
-      </c>
-      <c r="I7" s="27">
-        <v>0</v>
-      </c>
-      <c r="J7" s="27">
-        <v>0</v>
-      </c>
-      <c r="K7" s="27">
-        <v>0</v>
-      </c>
-      <c r="L7" s="27">
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="29">
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
@@ -1868,32 +1880,35 @@
         <f>B7+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
-        <v>0</v>
-      </c>
-      <c r="I8" s="30">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30">
-        <v>0</v>
-      </c>
-      <c r="K8" s="30">
-        <v>0</v>
-      </c>
-      <c r="L8" s="30">
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0</v>
+      </c>
+      <c r="M8" s="29">
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
@@ -1909,7 +1924,7 @@
         <f t="shared" ref="B9:B17" si="0">B8+1</f>
         <v>3</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1924,6 +1939,22 @@
       <c r="G9" s="5">
         <v>0</v>
       </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="29"/>
       <c r="O9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1937,7 +1968,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1950,13 +1981,29 @@
       <c r="G10" s="5">
         <v>8</v>
       </c>
+      <c r="H10" s="5">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5">
+        <v>5</v>
+      </c>
+      <c r="K10" s="5">
+        <v>5</v>
+      </c>
+      <c r="L10" s="5">
+        <v>5</v>
+      </c>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1969,13 +2016,29 @@
       <c r="G11" s="5">
         <v>2</v>
       </c>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>2</v>
+      </c>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1988,13 +2051,29 @@
       <c r="G12" s="5">
         <v>2</v>
       </c>
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>2</v>
+      </c>
+      <c r="L12" s="5">
+        <v>2</v>
+      </c>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
@@ -2007,13 +2086,29 @@
       <c r="G13" s="5">
         <v>1</v>
       </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
@@ -2026,13 +2121,29 @@
       <c r="G14" s="5">
         <v>5</v>
       </c>
+      <c r="H14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2045,13 +2156,29 @@
       <c r="G15" s="5">
         <v>8</v>
       </c>
+      <c r="H15" s="5">
+        <v>8</v>
+      </c>
+      <c r="I15" s="5">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
@@ -2079,13 +2206,14 @@
       <c r="L16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2098,6 +2226,22 @@
       <c r="G17" s="5">
         <v>13</v>
       </c>
+      <c r="H17" s="5">
+        <v>13</v>
+      </c>
+      <c r="I17" s="5">
+        <v>13</v>
+      </c>
+      <c r="J17" s="5">
+        <v>13</v>
+      </c>
+      <c r="K17" s="5">
+        <v>8</v>
+      </c>
+      <c r="L17" s="5">
+        <v>5</v>
+      </c>
+      <c r="M17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2181,7 +2325,7 @@
           <x14:formula1>
             <xm:f>'PIVOT CONST'!$D$3:$D$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D4</xm:sqref>
+          <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
